--- a/20240708_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
+++ b/20240708_Orthofinder Results/Results_Jul07/Orthogroups/Orthogroups_adapted for analysis and columns rearranged_20240807.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csiroau-my.sharepoint.com/personal/han394_csiro_au/Documents/Documents/GitHub/Phylogenomic-study/20240708_Orthofinder Results/Results_Jul07/Orthogroups/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D362CE7-BC20-4FBD-89A1-A5793F016954}"/>
+  <xr:revisionPtr revIDLastSave="202" documentId="8_{2B205E00-3B37-4A84-A0E4-0BFE2F278F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53BE59D1-ADB2-4483-961B-4315C26E6FF8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
+    <workbookView minimized="1" xWindow="2184" yWindow="2316" windowWidth="17280" windowHeight="10104" xr2:uid="{A74813FE-C142-431E-93FA-E3E9EB22F48C}"/>
   </bookViews>
   <sheets>
     <sheet name="Orthogroups" sheetId="2" r:id="rId1"/>
@@ -18147,9 +18147,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F490DB99-BC92-4467-91FC-387E3D8437EE}">
   <dimension ref="A1:AT472"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="AO195" sqref="AO195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18194,7 +18194,7 @@
     <col min="39" max="39" width="38.33203125" customWidth="1"/>
     <col min="40" max="40" width="61.5546875" customWidth="1"/>
     <col min="41" max="41" width="50" customWidth="1"/>
-    <col min="42" max="42" width="31.88671875" customWidth="1"/>
+    <col min="42" max="42" width="40.77734375" customWidth="1"/>
     <col min="43" max="43" width="30.77734375" customWidth="1"/>
     <col min="44" max="44" width="26.33203125" customWidth="1"/>
     <col min="45" max="45" width="33.44140625" customWidth="1"/>
